--- a/store/hoso/dulieu.xlsx
+++ b/store/hoso/dulieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THỰC TẬP 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395E0ACE-0C18-4726-9DC9-1C64917BC071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F672A97-6DAD-4095-8549-A817F3D350F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="730">
   <si>
     <t>STT</t>
   </si>
@@ -2880,8 +2880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK338"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" activeCellId="1" sqref="A4:AM4 I11"/>
+    <sheetView tabSelected="1" topLeftCell="U309" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X306" sqref="X306:X334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3160,30 +3160,54 @@
       <c r="AK3" s="9"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
+      <c r="T4" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="11"/>
+      <c r="W4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
@@ -20687,8 +20711,12 @@
       <c r="T307" s="9"/>
       <c r="U307" s="9"/>
       <c r="V307" s="9"/>
-      <c r="W307" s="9"/>
-      <c r="X307" s="11"/>
+      <c r="W307" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X307" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y307" s="9"/>
       <c r="Z307" s="9"/>
       <c r="AA307" s="9"/>
@@ -20746,8 +20774,12 @@
       <c r="T308" s="9"/>
       <c r="U308" s="9"/>
       <c r="V308" s="9"/>
-      <c r="W308" s="9"/>
-      <c r="X308" s="11"/>
+      <c r="W308" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X308" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y308" s="9"/>
       <c r="Z308" s="9"/>
       <c r="AA308" s="9"/>
@@ -20799,8 +20831,12 @@
       <c r="T309" s="9"/>
       <c r="U309" s="9"/>
       <c r="V309" s="9"/>
-      <c r="W309" s="9"/>
-      <c r="X309" s="11"/>
+      <c r="W309" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X309" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y309" s="9"/>
       <c r="Z309" s="9"/>
       <c r="AA309" s="9"/>
@@ -20856,8 +20892,12 @@
       </c>
       <c r="U310" s="9"/>
       <c r="V310" s="9"/>
-      <c r="W310" s="9"/>
-      <c r="X310" s="11"/>
+      <c r="W310" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X310" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y310" s="9"/>
       <c r="Z310" s="9"/>
       <c r="AA310" s="9"/>
@@ -20917,8 +20957,12 @@
         <v>37</v>
       </c>
       <c r="V311" s="9"/>
-      <c r="W311" s="9"/>
-      <c r="X311" s="11"/>
+      <c r="W311" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X311" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y311" s="9"/>
       <c r="Z311" s="9"/>
       <c r="AA311" s="9"/>
@@ -20970,8 +21014,12 @@
       <c r="T312" s="9"/>
       <c r="U312" s="9"/>
       <c r="V312" s="9"/>
-      <c r="W312" s="9"/>
-      <c r="X312" s="11"/>
+      <c r="W312" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X312" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y312" s="9"/>
       <c r="Z312" s="9"/>
       <c r="AA312" s="9"/>
@@ -21023,8 +21071,12 @@
       <c r="T313" s="9"/>
       <c r="U313" s="9"/>
       <c r="V313" s="9"/>
-      <c r="W313" s="9"/>
-      <c r="X313" s="11"/>
+      <c r="W313" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X313" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y313" s="9"/>
       <c r="Z313" s="9"/>
       <c r="AA313" s="9"/>
@@ -21076,8 +21128,12 @@
       <c r="T314" s="9"/>
       <c r="U314" s="9"/>
       <c r="V314" s="9"/>
-      <c r="W314" s="9"/>
-      <c r="X314" s="11"/>
+      <c r="W314" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X314" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y314" s="9"/>
       <c r="Z314" s="9"/>
       <c r="AA314" s="9"/>
@@ -21129,8 +21185,12 @@
       <c r="T315" s="9"/>
       <c r="U315" s="9"/>
       <c r="V315" s="9"/>
-      <c r="W315" s="9"/>
-      <c r="X315" s="11"/>
+      <c r="W315" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X315" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y315" s="9"/>
       <c r="Z315" s="9"/>
       <c r="AA315" s="9"/>
@@ -21182,8 +21242,12 @@
       <c r="T316" s="9"/>
       <c r="U316" s="9"/>
       <c r="V316" s="9"/>
-      <c r="W316" s="9"/>
-      <c r="X316" s="11"/>
+      <c r="W316" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X316" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y316" s="9"/>
       <c r="Z316" s="9"/>
       <c r="AA316" s="9"/>
@@ -21235,8 +21299,12 @@
       <c r="T317" s="9"/>
       <c r="U317" s="9"/>
       <c r="V317" s="9"/>
-      <c r="W317" s="9"/>
-      <c r="X317" s="11"/>
+      <c r="W317" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X317" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y317" s="9"/>
       <c r="Z317" s="9"/>
       <c r="AA317" s="9"/>
@@ -21288,8 +21356,12 @@
       <c r="T318" s="9"/>
       <c r="U318" s="9"/>
       <c r="V318" s="9"/>
-      <c r="W318" s="9"/>
-      <c r="X318" s="11"/>
+      <c r="W318" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X318" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y318" s="9"/>
       <c r="Z318" s="9"/>
       <c r="AA318" s="9"/>
@@ -21341,8 +21413,12 @@
       <c r="T319" s="9"/>
       <c r="U319" s="9"/>
       <c r="V319" s="9"/>
-      <c r="W319" s="9"/>
-      <c r="X319" s="11"/>
+      <c r="W319" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X319" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y319" s="9"/>
       <c r="Z319" s="9"/>
       <c r="AA319" s="9"/>
@@ -21394,8 +21470,12 @@
       <c r="T320" s="9"/>
       <c r="U320" s="9"/>
       <c r="V320" s="9"/>
-      <c r="W320" s="9"/>
-      <c r="X320" s="11"/>
+      <c r="W320" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X320" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y320" s="9"/>
       <c r="Z320" s="9"/>
       <c r="AA320" s="9"/>
@@ -21447,8 +21527,12 @@
       <c r="T321" s="9"/>
       <c r="U321" s="9"/>
       <c r="V321" s="9"/>
-      <c r="W321" s="9"/>
-      <c r="X321" s="11"/>
+      <c r="W321" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X321" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y321" s="9"/>
       <c r="Z321" s="9"/>
       <c r="AA321" s="9"/>
@@ -21500,8 +21584,12 @@
       <c r="T322" s="9"/>
       <c r="U322" s="9"/>
       <c r="V322" s="9"/>
-      <c r="W322" s="9"/>
-      <c r="X322" s="11"/>
+      <c r="W322" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X322" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y322" s="9"/>
       <c r="Z322" s="9"/>
       <c r="AA322" s="9"/>
@@ -21553,8 +21641,12 @@
       <c r="T323" s="9"/>
       <c r="U323" s="9"/>
       <c r="V323" s="9"/>
-      <c r="W323" s="9"/>
-      <c r="X323" s="11"/>
+      <c r="W323" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X323" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y323" s="9"/>
       <c r="Z323" s="9"/>
       <c r="AA323" s="9"/>
@@ -21606,8 +21698,12 @@
       <c r="T324" s="9"/>
       <c r="U324" s="9"/>
       <c r="V324" s="9"/>
-      <c r="W324" s="9"/>
-      <c r="X324" s="11"/>
+      <c r="W324" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X324" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y324" s="9"/>
       <c r="Z324" s="9"/>
       <c r="AA324" s="9"/>
@@ -21659,8 +21755,12 @@
       <c r="T325" s="9"/>
       <c r="U325" s="9"/>
       <c r="V325" s="9"/>
-      <c r="W325" s="9"/>
-      <c r="X325" s="11"/>
+      <c r="W325" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X325" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y325" s="9"/>
       <c r="Z325" s="9"/>
       <c r="AA325" s="9"/>
@@ -21712,8 +21812,12 @@
       <c r="T326" s="9"/>
       <c r="U326" s="9"/>
       <c r="V326" s="9"/>
-      <c r="W326" s="9"/>
-      <c r="X326" s="11"/>
+      <c r="W326" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X326" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y326" s="9"/>
       <c r="Z326" s="9"/>
       <c r="AA326" s="9"/>
@@ -21765,8 +21869,12 @@
       <c r="T327" s="9"/>
       <c r="U327" s="9"/>
       <c r="V327" s="9"/>
-      <c r="W327" s="9"/>
-      <c r="X327" s="11"/>
+      <c r="W327" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X327" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y327" s="9"/>
       <c r="Z327" s="9"/>
       <c r="AA327" s="9"/>
@@ -21818,8 +21926,12 @@
       <c r="T328" s="9"/>
       <c r="U328" s="9"/>
       <c r="V328" s="9"/>
-      <c r="W328" s="9"/>
-      <c r="X328" s="11"/>
+      <c r="W328" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X328" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y328" s="9"/>
       <c r="Z328" s="9"/>
       <c r="AA328" s="9"/>
@@ -21871,8 +21983,12 @@
       <c r="T329" s="9"/>
       <c r="U329" s="9"/>
       <c r="V329" s="9"/>
-      <c r="W329" s="9"/>
-      <c r="X329" s="11"/>
+      <c r="W329" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X329" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y329" s="9"/>
       <c r="Z329" s="9"/>
       <c r="AA329" s="9"/>
@@ -21924,8 +22040,12 @@
       <c r="T330" s="9"/>
       <c r="U330" s="9"/>
       <c r="V330" s="9"/>
-      <c r="W330" s="9"/>
-      <c r="X330" s="11"/>
+      <c r="W330" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X330" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y330" s="9"/>
       <c r="Z330" s="9"/>
       <c r="AA330" s="9"/>
@@ -21977,8 +22097,12 @@
       <c r="T331" s="9"/>
       <c r="U331" s="9"/>
       <c r="V331" s="9"/>
-      <c r="W331" s="9"/>
-      <c r="X331" s="11"/>
+      <c r="W331" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X331" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y331" s="9"/>
       <c r="Z331" s="9"/>
       <c r="AA331" s="9"/>
@@ -22030,8 +22154,12 @@
       <c r="T332" s="9"/>
       <c r="U332" s="9"/>
       <c r="V332" s="9"/>
-      <c r="W332" s="9"/>
-      <c r="X332" s="11"/>
+      <c r="W332" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X332" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y332" s="9"/>
       <c r="Z332" s="9"/>
       <c r="AA332" s="9"/>
@@ -22083,8 +22211,12 @@
       <c r="T333" s="9"/>
       <c r="U333" s="9"/>
       <c r="V333" s="9"/>
-      <c r="W333" s="9"/>
-      <c r="X333" s="11"/>
+      <c r="W333" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X333" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y333" s="9"/>
       <c r="Z333" s="9"/>
       <c r="AA333" s="9"/>
@@ -22136,8 +22268,12 @@
       <c r="T334" s="9"/>
       <c r="U334" s="9"/>
       <c r="V334" s="9"/>
-      <c r="W334" s="9"/>
-      <c r="X334" s="11"/>
+      <c r="W334" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X334" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="Y334" s="9"/>
       <c r="Z334" s="9"/>
       <c r="AA334" s="9"/>

--- a/store/hoso/dulieu.xlsx
+++ b/store/hoso/dulieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THỰC TẬP 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F672A97-6DAD-4095-8549-A817F3D350F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAED1FB6-29B4-4D37-8A31-0F7CD9613FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2880,8 +2880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U309" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X306" sqref="X306:X334"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/store/hoso/dulieu.xlsx
+++ b/store/hoso/dulieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THỰC TẬP 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76551177-F27E-4C5C-A4CC-10B8AD812104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9179A1BC-3EDE-4738-B91A-CC858CD18E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2970,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y306" sqref="Y306:Y334"/>
+    <sheetView tabSelected="1" topLeftCell="F309" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N320" sqref="N320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
